--- a/Datasets/Frantext_Zipped_Sizes.xlsx
+++ b/Datasets/Frantext_Zipped_Sizes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,14 +456,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>combined_1600s</t>
+          <t>random_sample_combined_1120s</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1600</v>
+        <v>1120</v>
       </c>
       <c r="D2" t="n">
-        <v>72686</v>
+        <v>55147</v>
       </c>
     </row>
     <row r="3">
@@ -472,14 +472,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>combined_1610s</t>
+          <t>random_sample_combined_1130s</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1610</v>
+        <v>1130</v>
       </c>
       <c r="D3" t="n">
-        <v>95374</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="4">
@@ -488,14 +488,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>combined_1620s</t>
+          <t>random_sample_combined_1150s</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1620</v>
+        <v>1150</v>
       </c>
       <c r="D4" t="n">
-        <v>85481</v>
+        <v>242835</v>
       </c>
     </row>
     <row r="5">
@@ -504,14 +504,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>combined_1630s</t>
+          <t>random_sample_combined_1160s</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1630</v>
+        <v>1160</v>
       </c>
       <c r="D5" t="n">
-        <v>69882</v>
+        <v>115122</v>
       </c>
     </row>
     <row r="6">
@@ -520,14 +520,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>combined_1640s</t>
+          <t>random_sample_combined_1170s</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1640</v>
+        <v>1170</v>
       </c>
       <c r="D6" t="n">
-        <v>70926</v>
+        <v>137797</v>
       </c>
     </row>
     <row r="7">
@@ -536,14 +536,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>combined_1650s</t>
+          <t>random_sample_combined_1180s</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1650</v>
+        <v>1180</v>
       </c>
       <c r="D7" t="n">
-        <v>61046</v>
+        <v>214363</v>
       </c>
     </row>
     <row r="8">
@@ -552,14 +552,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>combined_1660s</t>
+          <t>random_sample_combined_1190s</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1660</v>
+        <v>1190</v>
       </c>
       <c r="D8" t="n">
-        <v>76415</v>
+        <v>49664</v>
       </c>
     </row>
     <row r="9">
@@ -568,14 +568,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>combined_1670s</t>
+          <t>random_sample_combined_1200s</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1670</v>
+        <v>1200</v>
       </c>
       <c r="D9" t="n">
-        <v>73364</v>
+        <v>74536</v>
       </c>
     </row>
     <row r="10">
@@ -584,14 +584,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>combined_1680s</t>
+          <t>random_sample_combined_1210s</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1680</v>
+        <v>1210</v>
       </c>
       <c r="D10" t="n">
-        <v>65853</v>
+        <v>66402</v>
       </c>
     </row>
     <row r="11">
@@ -600,14 +600,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>combined_1690s</t>
+          <t>random_sample_combined_1240s</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1690</v>
+        <v>1240</v>
       </c>
       <c r="D11" t="n">
-        <v>60872</v>
+        <v>56380</v>
       </c>
     </row>
     <row r="12">
@@ -616,14 +616,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>combined_1700s</t>
+          <t>random_sample_combined_1250s</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1700</v>
+        <v>1250</v>
       </c>
       <c r="D12" t="n">
-        <v>61995</v>
+        <v>149861</v>
       </c>
     </row>
     <row r="13">
@@ -632,14 +632,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>combined_1710s</t>
+          <t>random_sample_combined_1270s</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1710</v>
+        <v>1270</v>
       </c>
       <c r="D13" t="n">
-        <v>72221</v>
+        <v>14482</v>
       </c>
     </row>
     <row r="14">
@@ -648,14 +648,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>combined_1720s</t>
+          <t>random_sample_combined_1280s</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1720</v>
+        <v>1280</v>
       </c>
       <c r="D14" t="n">
-        <v>75789</v>
+        <v>10677</v>
       </c>
     </row>
     <row r="15">
@@ -664,14 +664,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>combined_1730s</t>
+          <t>random_sample_combined_1300s</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1730</v>
+        <v>1300</v>
       </c>
       <c r="D15" t="n">
-        <v>59725</v>
+        <v>37174</v>
       </c>
     </row>
     <row r="16">
@@ -680,14 +680,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>combined_1740s</t>
+          <t>random_sample_combined_1320s</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1740</v>
+        <v>1320</v>
       </c>
       <c r="D16" t="n">
-        <v>54552</v>
+        <v>66876</v>
       </c>
     </row>
     <row r="17">
@@ -696,14 +696,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>combined_1750s</t>
+          <t>random_sample_combined_1340s</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1750</v>
+        <v>1340</v>
       </c>
       <c r="D17" t="n">
-        <v>66098</v>
+        <v>14460</v>
       </c>
     </row>
     <row r="18">
@@ -712,14 +712,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>combined_1760s</t>
+          <t>random_sample_combined_1350s</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="D18" t="n">
-        <v>52402</v>
+        <v>93395</v>
       </c>
     </row>
     <row r="19">
@@ -728,14 +728,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>combined_1770s</t>
+          <t>random_sample_combined_1360s</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1770</v>
+        <v>1360</v>
       </c>
       <c r="D19" t="n">
-        <v>59240</v>
+        <v>54982</v>
       </c>
     </row>
     <row r="20">
@@ -744,14 +744,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>combined_1780s</t>
+          <t>random_sample_combined_1390s</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1780</v>
+        <v>1390</v>
       </c>
       <c r="D20" t="n">
-        <v>65548</v>
+        <v>194449</v>
       </c>
     </row>
     <row r="21">
@@ -760,14 +760,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>combined_1790s</t>
+          <t>random_sample_combined_1400s</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1790</v>
+        <v>1400</v>
       </c>
       <c r="D21" t="n">
-        <v>70612</v>
+        <v>70834</v>
       </c>
     </row>
     <row r="22">
@@ -776,14 +776,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>combined_1800s</t>
+          <t>random_sample_combined_1420s</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1800</v>
+        <v>1420</v>
       </c>
       <c r="D22" t="n">
-        <v>64377</v>
+        <v>39406</v>
       </c>
     </row>
     <row r="23">
@@ -792,14 +792,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>combined_1810s</t>
+          <t>random_sample_combined_1500s</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1810</v>
+        <v>1500</v>
       </c>
       <c r="D23" t="n">
-        <v>78230</v>
+        <v>60057</v>
       </c>
     </row>
     <row r="24">
@@ -808,14 +808,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>combined_1820s</t>
+          <t>random_sample_combined_1510s</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1820</v>
+        <v>1510</v>
       </c>
       <c r="D24" t="n">
-        <v>59023</v>
+        <v>146467</v>
       </c>
     </row>
     <row r="25">
@@ -824,14 +824,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>combined_1830s</t>
+          <t>random_sample_combined_1520s</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1830</v>
+        <v>1520</v>
       </c>
       <c r="D25" t="n">
-        <v>73527</v>
+        <v>28006</v>
       </c>
     </row>
     <row r="26">
@@ -840,14 +840,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>combined_1840s</t>
+          <t>random_sample_combined_1530s</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1840</v>
+        <v>1530</v>
       </c>
       <c r="D26" t="n">
-        <v>78024</v>
+        <v>120766</v>
       </c>
     </row>
     <row r="27">
@@ -856,14 +856,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>combined_1850s</t>
+          <t>random_sample_combined_1540s</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1850</v>
+        <v>1540</v>
       </c>
       <c r="D27" t="n">
-        <v>66711</v>
+        <v>83669</v>
       </c>
     </row>
     <row r="28">
@@ -872,14 +872,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>combined_1860s</t>
+          <t>random_sample_combined_1550s</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1860</v>
+        <v>1550</v>
       </c>
       <c r="D28" t="n">
-        <v>62004</v>
+        <v>97827</v>
       </c>
     </row>
     <row r="29">
@@ -888,14 +888,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>combined_1870s</t>
+          <t>random_sample_combined_1560s</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1870</v>
+        <v>1560</v>
       </c>
       <c r="D29" t="n">
-        <v>59005</v>
+        <v>106328</v>
       </c>
     </row>
     <row r="30">
@@ -904,14 +904,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>combined_1880s</t>
+          <t>random_sample_combined_1570s</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1880</v>
+        <v>1570</v>
       </c>
       <c r="D30" t="n">
-        <v>80962</v>
+        <v>81721</v>
       </c>
     </row>
     <row r="31">
@@ -920,14 +920,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>combined_1890s</t>
+          <t>random_sample_combined_1580s</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1890</v>
+        <v>1580</v>
       </c>
       <c r="D31" t="n">
-        <v>95753</v>
+        <v>97943</v>
       </c>
     </row>
     <row r="32">
@@ -936,14 +936,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>combined_1900s</t>
+          <t>random_sample_combined_1590s</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1900</v>
+        <v>1590</v>
       </c>
       <c r="D32" t="n">
-        <v>65914</v>
+        <v>122037</v>
       </c>
     </row>
     <row r="33">
@@ -952,14 +952,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>combined_1910s</t>
+          <t>random_sample_combined_1600s</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1910</v>
+        <v>1600</v>
       </c>
       <c r="D33" t="n">
-        <v>58363</v>
+        <v>90190</v>
       </c>
     </row>
     <row r="34">
@@ -968,14 +968,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>combined_1920s</t>
+          <t>random_sample_combined_1610s</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1920</v>
+        <v>1610</v>
       </c>
       <c r="D34" t="n">
-        <v>66382</v>
+        <v>78154</v>
       </c>
     </row>
     <row r="35">
@@ -984,14 +984,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>combined_1930s</t>
+          <t>random_sample_combined_1620s</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1930</v>
+        <v>1620</v>
       </c>
       <c r="D35" t="n">
-        <v>79368</v>
+        <v>73545</v>
       </c>
     </row>
     <row r="36">
@@ -1000,14 +1000,574 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>combined_1940s</t>
+          <t>random_sample_combined_1630s</t>
         </is>
       </c>
       <c r="C36" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D36" t="n">
+        <v>79226</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1640s</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1640</v>
+      </c>
+      <c r="D37" t="n">
+        <v>77504</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1650s</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D38" t="n">
+        <v>83521</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1660s</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D39" t="n">
+        <v>80351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1670s</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D40" t="n">
+        <v>77160</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1680s</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D41" t="n">
+        <v>74283</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1690s</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D42" t="n">
+        <v>75626</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1700s</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D43" t="n">
+        <v>74995</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1710s</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D44" t="n">
+        <v>75230</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1720s</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D45" t="n">
+        <v>71871</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1730s</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D46" t="n">
+        <v>72326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1740s</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D47" t="n">
+        <v>74694</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1750s</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D48" t="n">
+        <v>73145</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1760s</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D49" t="n">
+        <v>72341</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1770s</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D50" t="n">
+        <v>74687</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1780s</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D51" t="n">
+        <v>73781</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1790s</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D52" t="n">
+        <v>75731</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1800s</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D53" t="n">
+        <v>77320</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1810s</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D54" t="n">
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1820s</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D55" t="n">
+        <v>76215</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1830s</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D56" t="n">
+        <v>76319</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1840s</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D57" t="n">
+        <v>77969</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1850s</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D58" t="n">
+        <v>77214</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1860s</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D59" t="n">
+        <v>71190</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1870s</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1870</v>
+      </c>
+      <c r="D60" t="n">
+        <v>74857</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1880s</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D61" t="n">
+        <v>72338</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1890s</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D62" t="n">
+        <v>74763</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1900s</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D63" t="n">
+        <v>70621</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1910s</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D64" t="n">
+        <v>71218</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1920s</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D65" t="n">
+        <v>76059</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1930s</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D66" t="n">
+        <v>87418</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1940s</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>1940</v>
       </c>
-      <c r="D36" t="n">
-        <v>83754</v>
+      <c r="D67" t="n">
+        <v>77579</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1960s</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1980s</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D69" t="n">
+        <v>93570</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>random_sample_combined_1990s</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D70" t="n">
+        <v>68754</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>random_sample_combined_2000s</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>77234</v>
       </c>
     </row>
   </sheetData>
